--- a/data/trans_orig/IP16A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{187796B0-ABC5-45AE-A974-5A064E23CFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA85005-48E7-44F5-B0FD-276280B12985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F89E0553-14EF-4E68-86B0-A6CCD31BD548}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{05C4BB33-798F-4096-AB5E-323CFCB471ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -107,6 +107,27 @@
     <t>98,69%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -128,27 +149,6 @@
     <t>98,7%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
     <t>0,89%</t>
   </si>
   <si>
@@ -224,6 +224,60 @@
     <t>77,24%</t>
   </si>
   <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
     <t>53,62%</t>
   </si>
   <si>
@@ -278,60 +332,6 @@
     <t>65,47%</t>
   </si>
   <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
     <t>37,6%</t>
   </si>
   <si>
@@ -443,6 +443,60 @@
     <t>74,91%</t>
   </si>
   <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
     <t>58,55%</t>
   </si>
   <si>
@@ -491,60 +545,6 @@
     <t>57,73%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
     <t>44,86%</t>
   </si>
   <si>
@@ -656,6 +656,60 @@
     <t>72,75%</t>
   </si>
   <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
     <t>36,41%</t>
   </si>
   <si>
@@ -702,60 +756,6 @@
   </si>
   <si>
     <t>64,85%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
   </si>
   <si>
     <t>40,79%</t>
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8362804B-5191-43BC-992E-4B0B402B5668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF8A6C-C27A-42B0-A823-9B5D1615F152}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,10 +1525,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1540,10 +1540,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I8" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1555,10 +1555,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N8" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1576,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1591,10 +1591,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1606,10 +1606,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1680,10 +1680,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1695,10 +1695,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1710,10 +1710,10 @@
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N11" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1731,10 +1731,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1746,10 +1746,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1761,10 +1761,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1947,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40D7458-76A2-421B-9058-35FDC185B2A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6094063E-C9C3-47E8-B1EF-154ECA45E5AD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2223,7 +2223,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>19801</v>
+        <v>21405</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>61</v>
@@ -2235,10 +2235,10 @@
         <v>63</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>14002</v>
+        <v>17403</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>64</v>
@@ -2250,10 +2250,10 @@
         <v>66</v>
       </c>
       <c r="M7" s="7">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N7" s="7">
-        <v>33804</v>
+        <v>38808</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>67</v>
@@ -2271,10 +2271,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>17126</v>
+        <v>36578</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>70</v>
@@ -2286,10 +2286,10 @@
         <v>72</v>
       </c>
       <c r="H8" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="7">
-        <v>27447</v>
+        <v>28364</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>73</v>
@@ -2301,10 +2301,10 @@
         <v>75</v>
       </c>
       <c r="M8" s="7">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="N8" s="7">
-        <v>44572</v>
+        <v>64942</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>76</v>
@@ -2322,10 +2322,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7">
-        <v>36927</v>
+        <v>57983</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2337,10 +2337,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>41449</v>
+        <v>45767</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2352,10 +2352,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>78376</v>
+        <v>103750</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2378,7 +2378,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>21405</v>
+        <v>19801</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>79</v>
@@ -2390,10 +2390,10 @@
         <v>81</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>17403</v>
+        <v>14002</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>82</v>
@@ -2405,10 +2405,10 @@
         <v>84</v>
       </c>
       <c r="M10" s="7">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>38808</v>
+        <v>33804</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>85</v>
@@ -2426,10 +2426,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>36578</v>
+        <v>17126</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>88</v>
@@ -2441,10 +2441,10 @@
         <v>90</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>28364</v>
+        <v>27447</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>91</v>
@@ -2456,10 +2456,10 @@
         <v>93</v>
       </c>
       <c r="M11" s="7">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="N11" s="7">
-        <v>64942</v>
+        <v>44572</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>94</v>
@@ -2477,10 +2477,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>57983</v>
+        <v>36927</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2492,10 +2492,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" s="7">
-        <v>45767</v>
+        <v>41449</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2507,10 +2507,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="N12" s="7">
-        <v>103750</v>
+        <v>78376</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2693,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87407BF2-56F3-406C-A775-915807DF93D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC1FCEC-00BD-4AA0-BA9C-BDE7AC559DBD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2966,10 +2966,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>24178</v>
+        <v>20008</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>134</v>
@@ -2984,7 +2984,7 @@
         <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>16562</v>
+        <v>15608</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>137</v>
@@ -2996,10 +2996,10 @@
         <v>139</v>
       </c>
       <c r="M7" s="7">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>40740</v>
+        <v>35617</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>140</v>
@@ -3008,7 +3008,7 @@
         <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,49 +3017,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>17119</v>
+        <v>21815</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>20510</v>
+        <v>29024</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="N8" s="7">
-        <v>37629</v>
+        <v>50839</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,10 +3068,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>41297</v>
+        <v>41823</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3083,10 +3083,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7">
-        <v>37072</v>
+        <v>44632</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3098,10 +3098,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N9" s="7">
-        <v>78369</v>
+        <v>86456</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3121,49 +3121,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>20008</v>
+        <v>24178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>15608</v>
+        <v>16562</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>35617</v>
+        <v>40740</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,46 +3172,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>21815</v>
+        <v>17119</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>29024</v>
+        <v>20510</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="N11" s="7">
-        <v>50839</v>
+        <v>37629</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>167</v>
@@ -3223,10 +3223,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>41823</v>
+        <v>41297</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3238,10 +3238,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>44632</v>
+        <v>37072</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3253,10 +3253,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>86456</v>
+        <v>78369</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3439,7 +3439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F465B6-E711-4625-9829-644D92D67244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C99F80-FDF8-405C-A5D7-4EABF59B7DB1}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3712,49 +3712,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>39977</v>
+        <v>17886</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="7">
+        <v>42</v>
+      </c>
+      <c r="I7" s="7">
+        <v>29210</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M7" s="7">
         <v>66</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="7">
-        <v>41</v>
-      </c>
-      <c r="I7" s="7">
-        <v>29772</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M7" s="7">
-        <v>87</v>
-      </c>
       <c r="N7" s="7">
-        <v>69749</v>
+        <v>47096</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,49 +3763,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7">
-        <v>44703</v>
+        <v>34101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I8" s="7">
-        <v>43838</v>
+        <v>25393</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="N8" s="7">
-        <v>88541</v>
+        <v>59494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,10 +3814,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>84680</v>
+        <v>51987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3829,10 +3829,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>73610</v>
+        <v>54603</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3844,10 +3844,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="N9" s="7">
-        <v>158290</v>
+        <v>106590</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3867,49 +3867,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>17886</v>
+        <v>39977</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>29210</v>
+        <v>29772</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7">
-        <v>47096</v>
+        <v>69749</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3918,13 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>34101</v>
+        <v>44703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>231</v>
@@ -3933,10 +3933,10 @@
         <v>232</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>25393</v>
+        <v>43838</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>233</v>
@@ -3948,10 +3948,10 @@
         <v>235</v>
       </c>
       <c r="M11" s="7">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="N11" s="7">
-        <v>59494</v>
+        <v>88541</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>236</v>
@@ -3969,10 +3969,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7">
-        <v>51987</v>
+        <v>84680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3984,10 +3984,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>54603</v>
+        <v>73610</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3999,10 +3999,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>106590</v>
+        <v>158290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/IP16A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA85005-48E7-44F5-B0FD-276280B12985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB68F303-7B81-42A4-8696-4D1EF354BC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{05C4BB33-798F-4096-AB5E-323CFCB471ED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19ECE13F-29FE-494C-A25C-76838468C33C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="319">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,7 +68,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -80,73 +98,85 @@
     <t>0%</t>
   </si>
   <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -158,658 +188,814 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2012 (Tasa respuesta: 20,72%)</t>
   </si>
   <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
   </si>
   <si>
     <t>38,44%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
   </si>
   <si>
     <t>61,56%</t>
   </si>
   <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
   <si>
     <t>47,21%</t>
   </si>
   <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
   </si>
   <si>
     <t>44,86%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
   </si>
   <si>
     <t>41,7%</t>
   </si>
   <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
   </si>
   <si>
     <t>44,06%</t>
   </si>
   <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
   </si>
   <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
+    <t>34,8%</t>
   </si>
   <si>
     <t>42,47%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
 </sst>
 </file>
@@ -820,7 +1006,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -916,39 +1102,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1000,7 +1186,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1111,13 +1297,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1126,6 +1305,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1190,19 +1376,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF8A6C-C27A-42B0-A823-9B5D1615F152}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71FAE84-3120-4E5F-9FF8-C128732E59E0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1319,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>29655</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1334,34 +1540,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>29035</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>58690</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1370,10 +1576,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>46474</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1385,34 +1591,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>47921</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>94395</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1421,49 +1627,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,49 +1680,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>50960</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>43221</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>94181</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,49 +1731,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>42390</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>32703</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M8" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>75093</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,49 +1782,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,49 +1835,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>23866</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>22507</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>46373</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,49 +1886,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>55055</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H11" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>44681</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M11" s="7">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>99736</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,102 +1937,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>39438</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>30543</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>69981</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,49 +2041,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>143919</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>125305</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>269224</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,55 +2092,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N16" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>215</v>
+      </c>
+      <c r="D18" s="7">
+        <v>143919</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
+        <v>190</v>
+      </c>
+      <c r="I18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
+        <v>405</v>
+      </c>
+      <c r="N18" s="7">
+        <v>269224</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1947,8 +2314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6094063E-C9C3-47E8-B1EF-154ECA45E5AD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA243D5-F415-4068-A141-7AD3DAB4EFCB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1964,7 +2331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2065,49 +2432,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>18420</v>
+        <v>26654</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7">
-        <v>16706</v>
+        <v>26913</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N4" s="7">
-        <v>35126</v>
+        <v>53567</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,49 +2483,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11772</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="7">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7">
+        <v>9584</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="7">
-        <v>45243</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="K5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="7">
-        <v>42876</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M5" s="7">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>88120</v>
+        <v>21356</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,49 +2534,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>63663</v>
+        <v>38426</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7">
-        <v>59582</v>
+        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>123246</v>
+        <v>74923</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,49 +2587,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>21405</v>
+        <v>48988</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>17403</v>
+        <v>37673</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="N7" s="7">
-        <v>38808</v>
+        <v>86660</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,49 +2638,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>36578</v>
+        <v>18377</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>28364</v>
+        <v>16492</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="N8" s="7">
-        <v>64942</v>
+        <v>34869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,49 +2689,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D9" s="7">
-        <v>57983</v>
+        <v>67365</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I9" s="7">
-        <v>45767</v>
+        <v>54165</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="N9" s="7">
-        <v>103750</v>
+        <v>121529</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,49 +2742,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>19801</v>
+        <v>13746</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>14002</v>
+        <v>14839</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>33804</v>
+        <v>28585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,49 +2793,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>17126</v>
+        <v>14169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H11" s="7">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>27447</v>
+        <v>14127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="N11" s="7">
-        <v>44572</v>
+        <v>28297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,102 +2844,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>36927</v>
+        <v>27915</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>41449</v>
+        <v>28966</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="N12" s="7">
-        <v>78376</v>
+        <v>56882</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>59627</v>
+        <v>9559</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H13" s="7">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>48111</v>
+        <v>19261</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>107738</v>
+        <v>28821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,49 +2948,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>98947</v>
+        <v>15309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>98686</v>
+        <v>7908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>197633</v>
+        <v>23216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,55 +2999,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24868</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>39</v>
+      </c>
+      <c r="I15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>75</v>
+      </c>
+      <c r="N15" s="7">
+        <v>52037</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>138</v>
+      </c>
+      <c r="D16" s="7">
+        <v>98947</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="7">
+        <v>141</v>
+      </c>
+      <c r="I16" s="7">
+        <v>98686</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="7">
+        <v>279</v>
+      </c>
+      <c r="N16" s="7">
+        <v>197633</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>85</v>
+      </c>
+      <c r="D17" s="7">
+        <v>59627</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="7">
+        <v>71</v>
+      </c>
+      <c r="I17" s="7">
+        <v>48111</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" s="7">
+        <v>156</v>
+      </c>
+      <c r="N17" s="7">
+        <v>107738</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>223</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>158574</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>212</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>146797</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>435</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>305371</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2693,8 +3221,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC1FCEC-00BD-4AA0-BA9C-BDE7AC559DBD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5046F7DF-CED0-498F-9F28-CD0E31932B9F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2710,7 +3238,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2811,49 +3339,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>11111</v>
+        <v>16757</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>17078</v>
+        <v>16913</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>28189</v>
+        <v>33669</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,49 +3390,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>29045</v>
+        <v>7219</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>28678</v>
+        <v>10120</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7">
-        <v>57723</v>
+        <v>17340</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,49 +3441,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>40156</v>
+        <v>23976</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I6" s="7">
-        <v>45756</v>
+        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>85912</v>
+        <v>51009</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,49 +3494,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>20008</v>
+        <v>27241</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I7" s="7">
-        <v>15608</v>
+        <v>28359</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>35617</v>
+        <v>55599</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,49 +3545,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>21815</v>
+        <v>15855</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7">
-        <v>29024</v>
+        <v>13880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="N8" s="7">
-        <v>50839</v>
+        <v>29736</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,49 +3596,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>41823</v>
+        <v>43096</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
-        <v>44632</v>
+        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" s="7">
-        <v>86456</v>
+        <v>85335</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,49 +3649,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>24178</v>
+        <v>12961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>16562</v>
+        <v>23607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N10" s="7">
-        <v>40740</v>
+        <v>36567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,49 +3700,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>17119</v>
+        <v>20485</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>20510</v>
+        <v>12517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>37629</v>
+        <v>33003</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,102 +3751,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>41297</v>
+        <v>33446</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>37072</v>
+        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>78369</v>
+        <v>69570</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>55297</v>
+        <v>11021</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>49249</v>
+        <v>9334</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>104546</v>
+        <v>20356</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,49 +3855,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>67979</v>
+        <v>11737</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>78212</v>
+        <v>12731</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>146191</v>
+        <v>24467</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,55 +3906,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>22758</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>31</v>
+      </c>
+      <c r="I15" s="7">
+        <v>22065</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>62</v>
+      </c>
+      <c r="N15" s="7">
+        <v>44823</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7">
+        <v>67979</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="7">
+        <v>119</v>
+      </c>
+      <c r="I16" s="7">
+        <v>78212</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M16" s="7">
+        <v>219</v>
+      </c>
+      <c r="N16" s="7">
+        <v>146191</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7">
+        <v>55297</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H17" s="7">
+        <v>73</v>
+      </c>
+      <c r="I17" s="7">
+        <v>49249</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M17" s="7">
+        <v>152</v>
+      </c>
+      <c r="N17" s="7">
+        <v>104546</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>179</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>123276</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>192</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>127461</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>371</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>250737</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3439,8 +4128,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C99F80-FDF8-405C-A5D7-4EABF59B7DB1}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5951F5-9AAD-4E87-8892-2E6760D6B57F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3456,7 +4145,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3557,49 +4246,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>12512</v>
+        <v>14665</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>9511</v>
+        <v>10307</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>22024</v>
+        <v>24972</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,49 +4297,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>23358</v>
+        <v>6270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>16687</v>
+        <v>5635</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>40044</v>
+        <v>11905</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,49 +4348,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20935</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15942</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="7">
         <v>72</v>
       </c>
-      <c r="D6" s="7">
-        <v>35870</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>26198</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
-        <v>123</v>
-      </c>
       <c r="N6" s="7">
-        <v>62068</v>
+        <v>36877</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,49 +4401,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>17886</v>
+        <v>29408</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>29210</v>
+        <v>21358</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="N7" s="7">
-        <v>47096</v>
+        <v>50765</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,49 +4452,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>34101</v>
+        <v>16594</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I8" s="7">
-        <v>25393</v>
+        <v>23386</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="N8" s="7">
-        <v>59494</v>
+        <v>39981</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,49 +4503,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>51987</v>
+        <v>46002</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>54603</v>
+        <v>44744</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>106590</v>
+        <v>90746</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,49 +4556,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>39977</v>
+        <v>25474</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>29772</v>
+        <v>19496</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="N10" s="7">
-        <v>69749</v>
+        <v>44970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,49 +4607,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>44703</v>
+        <v>18109</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>43838</v>
+        <v>17407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>88541</v>
+        <v>35516</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,102 +4658,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>84680</v>
+        <v>43583</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>73610</v>
+        <v>36903</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>158290</v>
+        <v>80486</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>70376</v>
+        <v>32613</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>68493</v>
+        <v>34758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>138869</v>
+        <v>67371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,49 +4762,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>102161</v>
+        <v>29403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>85919</v>
+        <v>22064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
-        <v>280</v>
+        <v>63</v>
       </c>
       <c r="N14" s="7">
-        <v>188079</v>
+        <v>51468</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,55 +4813,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62016</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>71</v>
+      </c>
+      <c r="I15" s="7">
+        <v>56822</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>148</v>
+      </c>
+      <c r="N15" s="7">
+        <v>118839</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>155</v>
+      </c>
+      <c r="D16" s="7">
+        <v>102161</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="7">
+        <v>125</v>
+      </c>
+      <c r="I16" s="7">
+        <v>85919</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M16" s="7">
+        <v>280</v>
+      </c>
+      <c r="N16" s="7">
+        <v>188079</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>95</v>
+      </c>
+      <c r="D17" s="7">
+        <v>70376</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H17" s="7">
+        <v>101</v>
+      </c>
+      <c r="I17" s="7">
+        <v>68493</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="7">
+        <v>196</v>
+      </c>
+      <c r="N17" s="7">
+        <v>138869</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>250</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>172537</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>226</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>154412</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>476</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>326948</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A01-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB68F303-7B81-42A4-8696-4D1EF354BC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A707CD6-E70C-402E-9E82-C890F28DAF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19ECE13F-29FE-494C-A25C-76838468C33C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{864DB567-950F-4B2F-B1F8-E284A8EF25CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="315">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -197,538 +197,538 @@
     <t>69,36%</t>
   </si>
   <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>73,74%</t>
   </si>
   <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>71,5%</t>
   </si>
   <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
   </si>
   <si>
     <t>26,26%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>28,5%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
   </si>
   <si>
     <t>72,72%</t>
   </si>
   <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>69,55%</t>
   </si>
   <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>27,28%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
   </si>
   <si>
     <t>30,45%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
   </si>
   <si>
     <t>49,24%</t>
   </si>
   <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
   </si>
   <si>
     <t>51,23%</t>
   </si>
   <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
   </si>
   <si>
     <t>50,25%</t>
   </si>
   <si>
-    <t>39,17%</t>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
   </si>
   <si>
     <t>41,7%</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
@@ -737,16 +737,16 @@
     <t>70,05%</t>
   </si>
   <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>42,99%</t>
+    <t>45,49%</t>
   </si>
   <si>
     <t>80,57%</t>
@@ -755,19 +755,19 @@
     <t>67,72%</t>
   </si>
   <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>29,95%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
   </si>
   <si>
     <t>35,35%</t>
@@ -776,226 +776,214 @@
     <t>19,43%</t>
   </si>
   <si>
-    <t>57,01%</t>
+    <t>54,51%</t>
   </si>
   <si>
     <t>32,28%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>47,73%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>55,94%</t>
   </si>
   <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
   </si>
   <si>
     <t>52,27%</t>
   </si>
   <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>44,06%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
   </si>
   <si>
     <t>52,83%</t>
   </si>
   <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
   </si>
   <si>
     <t>55,87%</t>
   </si>
   <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
   </si>
   <si>
     <t>41,55%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
   </si>
   <si>
     <t>47,17%</t>
   </si>
   <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
   </si>
   <si>
     <t>44,13%</t>
   </si>
   <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
   </si>
   <si>
     <t>52,59%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
+    <t>47,1%</t>
   </si>
   <si>
     <t>56,69%</t>
   </si>
   <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>47,41%</t>
   </si>
   <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>52,9%</t>
   </si>
   <si>
     <t>43,31%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
   </si>
   <si>
     <t>59,21%</t>
   </si>
   <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
   </si>
   <si>
     <t>55,64%</t>
   </si>
   <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
   </si>
   <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71FAE84-3120-4E5F-9FF8-C128732E59E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BB7CE1-0EE9-4FBE-803E-01B521AC4252}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2314,7 +2302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA243D5-F415-4068-A141-7AD3DAB4EFCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B8112F-D7CA-4160-876B-A462009B80CC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3221,7 +3209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5046F7DF-CED0-498F-9F28-CD0E31932B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727B1727-4E9A-40F3-9D1C-D99E9F47F458}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3518,10 +3506,10 @@
         <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>85</v>
@@ -3530,13 +3518,13 @@
         <v>55599</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3539,13 @@
         <v>15855</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -3566,13 +3554,13 @@
         <v>13880</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -3581,13 +3569,13 @@
         <v>29736</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3643,13 @@
         <v>12961</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3670,13 +3658,13 @@
         <v>23607</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -3685,13 +3673,13 @@
         <v>36567</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3694,13 @@
         <v>20485</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -3721,13 +3709,13 @@
         <v>12517</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -3736,13 +3724,13 @@
         <v>33003</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3798,13 @@
         <v>11021</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3825,13 +3813,13 @@
         <v>9334</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3840,13 +3828,13 @@
         <v>20356</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3849,13 @@
         <v>11737</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -3876,13 +3864,13 @@
         <v>12731</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3891,13 +3879,13 @@
         <v>24467</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3953,13 @@
         <v>67979</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>119</v>
@@ -3980,13 +3968,13 @@
         <v>78212</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>219</v>
@@ -3995,13 +3983,13 @@
         <v>146191</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4004,13 @@
         <v>55297</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -4031,7 +4019,7 @@
         <v>49249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>225</v>
@@ -4128,7 +4116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5951F5-9AAD-4E87-8892-2E6760D6B57F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7E7567-0054-45A5-B079-6E1AB0807CDE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4407,13 +4395,13 @@
         <v>29408</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -4422,13 +4410,13 @@
         <v>21358</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>83</v>
@@ -4437,13 +4425,13 @@
         <v>50765</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4446,13 @@
         <v>16594</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>36</v>
@@ -4473,13 +4461,13 @@
         <v>23386</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>64</v>
@@ -4488,13 +4476,13 @@
         <v>39981</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4550,13 @@
         <v>25474</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4577,13 +4565,13 @@
         <v>19496</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -4592,13 +4580,13 @@
         <v>44970</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4601,13 @@
         <v>18109</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -4628,13 +4616,13 @@
         <v>17407</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -4643,13 +4631,13 @@
         <v>35516</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4705,13 @@
         <v>32613</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4732,13 +4720,13 @@
         <v>34758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -4747,13 +4735,13 @@
         <v>67371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4756,13 @@
         <v>29403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -4783,13 +4771,13 @@
         <v>22064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -4798,13 +4786,13 @@
         <v>51468</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4860,13 @@
         <v>102161</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H16" s="7">
         <v>125</v>
@@ -4887,13 +4875,13 @@
         <v>85919</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>280</v>
@@ -4902,13 +4890,13 @@
         <v>188079</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4911,13 @@
         <v>70376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4938,13 +4926,13 @@
         <v>68493</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
@@ -4953,13 +4941,13 @@
         <v>138869</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A707CD6-E70C-402E-9E82-C890F28DAF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0433C612-B2DA-4DA7-98F1-E7E1C995A6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{864DB567-950F-4B2F-B1F8-E284A8EF25CE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{49C4CC8D-F156-495A-9909-E30146555DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="317">
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -77,15 +77,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
     <t>97,89%</t>
   </si>
   <si>
@@ -98,93 +98,93 @@
     <t>0%</t>
   </si>
   <si>
+    <t>4,07%</t>
+  </si>
+  <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
     <t>2,11%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>97,14%</t>
+  </si>
+  <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
     <t>98,66%</t>
   </si>
   <si>
+    <t>2,86%</t>
+  </si>
+  <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
     <t>1,34%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>94,39%</t>
+  </si>
+  <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
     <t>97,26%</t>
   </si>
   <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
     <t>2,74%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>95,84%</t>
+  </si>
+  <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
     <t>98,17%</t>
   </si>
   <si>
+    <t>4,16%</t>
+  </si>
+  <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
     <t>1,83%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,47%</t>
   </si>
   <si>
@@ -194,796 +194,802 @@
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2012 (Tasa respuesta: 20,72%)</t>
   </si>
   <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
     <t>69,36%</t>
   </si>
   <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>71,5%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
   </si>
   <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
   </si>
   <si>
     <t>28,5%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>72,72%</t>
   </si>
   <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
   </si>
   <si>
     <t>27,28%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>49,24%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
   </si>
   <si>
     <t>50,25%</t>
   </si>
   <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
   </si>
   <si>
     <t>50,76%</t>
   </si>
   <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
   </si>
   <si>
     <t>49,75%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>38,44%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
   </si>
   <si>
     <t>55,39%</t>
   </si>
   <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
   </si>
   <si>
     <t>61,56%</t>
   </si>
   <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>44,61%</t>
   </si>
   <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
   </si>
   <si>
     <t>62,4%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
   </si>
   <si>
     <t>37,6%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2016 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
   </si>
   <si>
     <t>52,56%</t>
   </si>
   <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
   </si>
   <si>
     <t>61,25%</t>
   </si>
   <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
   </si>
   <si>
     <t>47,44%</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
   </si>
   <si>
     <t>48,43%</t>
   </si>
   <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
   </si>
   <si>
     <t>45,41%</t>
   </si>
   <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
   </si>
   <si>
     <t>51,57%</t>
   </si>
   <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
   </si>
   <si>
     <t>54,59%</t>
   </si>
   <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>55,14%</t>
   </si>
   <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>58,3%</t>
   </si>
   <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
   </si>
   <si>
     <t>44,86%</t>
   </si>
   <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
   </si>
   <si>
     <t>41,7%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicinas para el catarro, gripe, garganta.. en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
   </si>
   <si>
     <t>41,55%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BB7CE1-0EE9-4FBE-803E-01B521AC4252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8E0BFD-CD6C-4C6E-8140-DB71A7E92275}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1513,10 +1519,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7">
-        <v>29655</v>
+        <v>29035</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1528,10 +1534,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>29035</v>
+        <v>29655</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1615,25 +1621,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1668,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D7" s="7">
-        <v>50960</v>
+        <v>43221</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1683,10 +1689,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>43221</v>
+        <v>50960</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -1770,25 +1776,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1823,10 +1829,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>23866</v>
+        <v>22507</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1838,10 +1844,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>22507</v>
+        <v>23866</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1925,25 +1931,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1978,10 +1984,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>39438</v>
+        <v>30543</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -1993,10 +1999,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I13" s="7">
-        <v>30543</v>
+        <v>39438</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -2080,25 +2086,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2133,10 +2139,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="D16" s="7">
-        <v>143919</v>
+        <v>125305</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -2148,10 +2154,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="I16" s="7">
-        <v>125305</v>
+        <v>143919</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -2235,25 +2241,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2302,7 +2308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B8112F-D7CA-4160-876B-A462009B80CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D096705-4E88-4808-933E-BDFA5F1A425E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2420,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>26654</v>
+        <v>26913</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>51</v>
@@ -2435,10 +2441,10 @@
         <v>53</v>
       </c>
       <c r="H4" s="7">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>26913</v>
+        <v>26654</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>54</v>
@@ -2471,10 +2477,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>11772</v>
+        <v>9584</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>60</v>
@@ -2486,10 +2492,10 @@
         <v>62</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>9584</v>
+        <v>11772</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>63</v>
@@ -2522,25 +2528,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7">
+        <v>36497</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>54</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>38426</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>55</v>
-      </c>
-      <c r="I6" s="7">
-        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2575,10 +2581,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>48988</v>
+        <v>37673</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>69</v>
@@ -2590,10 +2596,10 @@
         <v>71</v>
       </c>
       <c r="H7" s="7">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7">
-        <v>37673</v>
+        <v>48988</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>72</v>
@@ -2626,10 +2632,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7">
-        <v>18377</v>
+        <v>16492</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>78</v>
@@ -2641,10 +2647,10 @@
         <v>80</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>16492</v>
+        <v>18377</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>81</v>
@@ -2677,25 +2683,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>77</v>
+      </c>
+      <c r="D9" s="7">
+        <v>54165</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>94</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>67365</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>77</v>
-      </c>
-      <c r="I9" s="7">
-        <v>54165</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2730,10 +2736,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>13746</v>
+        <v>14839</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>87</v>
@@ -2745,10 +2751,10 @@
         <v>89</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>14839</v>
+        <v>13746</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>90</v>
@@ -2784,7 +2790,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>14169</v>
+        <v>14127</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>96</v>
@@ -2799,7 +2805,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>14127</v>
+        <v>14169</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>99</v>
@@ -2832,25 +2838,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7">
+        <v>28966</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>39</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>27915</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>41</v>
-      </c>
-      <c r="I12" s="7">
-        <v>28966</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2885,10 +2891,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>9559</v>
+        <v>19261</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>105</v>
@@ -2900,10 +2906,10 @@
         <v>107</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>19261</v>
+        <v>9559</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>108</v>
@@ -2936,10 +2942,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7">
-        <v>15309</v>
+        <v>7908</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>114</v>
@@ -2951,10 +2957,10 @@
         <v>116</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>7908</v>
+        <v>15309</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>117</v>
@@ -2987,25 +2993,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>36</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>24868</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>39</v>
-      </c>
-      <c r="I15" s="7">
-        <v>27169</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3040,10 +3046,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D16" s="7">
-        <v>98947</v>
+        <v>98686</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>123</v>
@@ -3055,10 +3061,10 @@
         <v>125</v>
       </c>
       <c r="H16" s="7">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I16" s="7">
-        <v>98686</v>
+        <v>98947</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>126</v>
@@ -3076,13 +3082,13 @@
         <v>197633</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,34 +3097,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>71</v>
+      </c>
+      <c r="D17" s="7">
+        <v>48111</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="7">
         <v>85</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>59627</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="7">
-        <v>71</v>
-      </c>
-      <c r="I17" s="7">
-        <v>48111</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -3127,13 +3133,13 @@
         <v>107738</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,25 +3148,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>212</v>
+      </c>
+      <c r="D18" s="7">
+        <v>146797</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>223</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>158574</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>212</v>
-      </c>
-      <c r="I18" s="7">
-        <v>146797</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3209,7 +3215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727B1727-4E9A-40F3-9D1C-D99E9F47F458}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28695FA2-2F86-448B-B122-733C8B36D182}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3226,7 +3232,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3330,31 +3336,31 @@
         <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>16757</v>
+        <v>16913</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>16913</v>
+        <v>16757</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -3363,13 +3369,13 @@
         <v>33669</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,34 +3384,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10120</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="7">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>7219</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="7">
-        <v>17</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10120</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -3414,13 +3420,13 @@
         <v>17340</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,25 +3435,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7">
+        <v>27033</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>23976</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3482,34 +3488,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7">
+        <v>28359</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="7">
         <v>40</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>27241</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="7">
-        <v>45</v>
-      </c>
-      <c r="I7" s="7">
-        <v>28359</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>85</v>
@@ -3518,13 +3524,13 @@
         <v>55599</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,34 +3539,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7">
+        <v>13880</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="7">
         <v>23</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>15855</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="7">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7">
-        <v>13880</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>43</v>
@@ -3584,25 +3590,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42239</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>63</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43096</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3637,10 +3643,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>12961</v>
+        <v>23607</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>176</v>
@@ -3652,10 +3658,10 @@
         <v>178</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>23607</v>
+        <v>12961</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>179</v>
@@ -3679,7 +3685,7 @@
         <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,34 +3694,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
+        <v>12517</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="7">
         <v>29</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>20485</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H11" s="7">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7">
-        <v>12517</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -3724,13 +3730,13 @@
         <v>33003</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,25 +3745,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>33446</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3792,34 +3798,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9334</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="7">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>11021</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9334</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3828,13 +3834,13 @@
         <v>20356</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,34 +3849,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7">
+        <v>12731</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="7">
         <v>16</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>11737</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H14" s="7">
-        <v>18</v>
-      </c>
-      <c r="I14" s="7">
-        <v>12731</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3879,13 +3885,13 @@
         <v>24467</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,7 +3903,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>22758</v>
+        <v>22065</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3912,7 +3918,7 @@
         <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>22065</v>
+        <v>22758</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3947,34 +3953,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>119</v>
+      </c>
+      <c r="D16" s="7">
+        <v>78212</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="7">
         <v>100</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>67979</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="7">
-        <v>119</v>
-      </c>
-      <c r="I16" s="7">
-        <v>78212</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>219</v>
@@ -3983,13 +3989,13 @@
         <v>146191</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,34 +4004,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>73</v>
+      </c>
+      <c r="D17" s="7">
+        <v>49249</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="7">
         <v>79</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>55297</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H17" s="7">
-        <v>73</v>
-      </c>
-      <c r="I17" s="7">
-        <v>49249</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>152</v>
@@ -4034,13 +4040,13 @@
         <v>104546</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,25 +4055,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>192</v>
+      </c>
+      <c r="D18" s="7">
+        <v>127461</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>179</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -4116,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7E7567-0054-45A5-B079-6E1AB0807CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D4D547-2E7E-4557-A5AB-F579A320E6D8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4133,7 +4139,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4234,49 +4240,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10216</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="7">
         <v>30</v>
       </c>
-      <c r="D4" s="7">
-        <v>14665</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>15583</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="7">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10307</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>24972</v>
+        <v>25799</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,49 +4291,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5767</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="7">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
-        <v>6270</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>6774</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H5" s="7">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5635</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>11905</v>
+        <v>12541</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,25 +4342,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>30</v>
-      </c>
       <c r="I6" s="7">
-        <v>15942</v>
+        <v>22357</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -4369,7 +4375,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -4389,49 +4395,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7">
+        <v>21575</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="7">
         <v>47</v>
       </c>
-      <c r="D7" s="7">
-        <v>29408</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>30960</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H7" s="7">
-        <v>36</v>
-      </c>
-      <c r="I7" s="7">
-        <v>21358</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>83</v>
       </c>
       <c r="N7" s="7">
-        <v>50765</v>
+        <v>52535</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,49 +4446,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7">
+        <v>25048</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="7">
         <v>28</v>
       </c>
-      <c r="D8" s="7">
-        <v>16594</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>18024</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H8" s="7">
-        <v>36</v>
-      </c>
-      <c r="I8" s="7">
-        <v>23386</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>64</v>
       </c>
       <c r="N8" s="7">
-        <v>39981</v>
+        <v>43072</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,25 +4497,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46623</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>75</v>
       </c>
-      <c r="D9" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
       <c r="I9" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -4524,7 +4530,7 @@
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -4544,49 +4550,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7">
+        <v>19585</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="7">
         <v>33</v>
       </c>
-      <c r="D10" s="7">
-        <v>25474</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>26988</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="7">
-        <v>29</v>
-      </c>
-      <c r="I10" s="7">
-        <v>19496</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
       </c>
       <c r="N10" s="7">
-        <v>44970</v>
+        <v>46573</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,49 +4601,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7">
+        <v>17566</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="7">
         <v>23</v>
       </c>
-      <c r="D11" s="7">
-        <v>18109</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>19181</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>17407</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>35516</v>
+        <v>36747</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,25 +4652,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
       <c r="I12" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -4679,7 +4685,7 @@
         <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -4699,49 +4705,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7">
+        <v>52641</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" s="7">
         <v>45</v>
       </c>
-      <c r="D13" s="7">
-        <v>32613</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>34032</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H13" s="7">
-        <v>40</v>
-      </c>
-      <c r="I13" s="7">
-        <v>34758</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>67371</v>
+        <v>86672</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,31 +4756,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7">
+        <v>25316</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" s="7">
         <v>32</v>
       </c>
-      <c r="D14" s="7">
-        <v>29403</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>30660</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H14" s="7">
-        <v>31</v>
-      </c>
-      <c r="I14" s="7">
-        <v>22064</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>295</v>
@@ -4783,7 +4789,7 @@
         <v>63</v>
       </c>
       <c r="N14" s="7">
-        <v>51468</v>
+        <v>55977</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>296</v>
@@ -4801,25 +4807,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7">
+        <v>77957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>77</v>
       </c>
-      <c r="D15" s="7">
-        <v>62016</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>71</v>
-      </c>
       <c r="I15" s="7">
-        <v>56822</v>
+        <v>64692</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -4834,7 +4840,7 @@
         <v>148</v>
       </c>
       <c r="N15" s="7">
-        <v>118839</v>
+        <v>142649</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4854,10 +4860,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D16" s="7">
-        <v>102161</v>
+        <v>104018</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>299</v>
@@ -4869,10 +4875,10 @@
         <v>301</v>
       </c>
       <c r="H16" s="7">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="I16" s="7">
-        <v>85919</v>
+        <v>107562</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>302</v>
@@ -4887,16 +4893,16 @@
         <v>280</v>
       </c>
       <c r="N16" s="7">
-        <v>188079</v>
+        <v>211579</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,49 +4911,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>101</v>
+      </c>
+      <c r="D17" s="7">
+        <v>73697</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="7">
         <v>95</v>
       </c>
-      <c r="D17" s="7">
-        <v>70376</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H17" s="7">
-        <v>101</v>
-      </c>
       <c r="I17" s="7">
-        <v>68493</v>
+        <v>74639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
       </c>
       <c r="N17" s="7">
-        <v>138869</v>
+        <v>148337</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,25 +4962,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>226</v>
+      </c>
+      <c r="D18" s="7">
+        <v>177715</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>250</v>
       </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
       <c r="I18" s="7">
-        <v>154412</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -4989,7 +4995,7 @@
         <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>326948</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
